--- a/docs/test-plan.xlsx
+++ b/docs/test-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htblaleonding-my.sharepoint.com/personal/a_wimmer2_students_htl-leonding_ac_at/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6368a6be5aca3f60/Documents/HTL/WMC/room-food/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1134" documentId="8_{6403F3F5-45D2-4B19-BA55-5D98014D21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46527CA5-41B0-4C05-BA4F-1EB69743C83C}"/>
+  <xr:revisionPtr revIDLastSave="1140" documentId="8_{6403F3F5-45D2-4B19-BA55-5D98014D21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69EA73EE-84C0-4862-A632-1FF536E20DD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C42BC90F-3C54-42E4-BD98-606C1062A153}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C42BC90F-3C54-42E4-BD98-606C1062A153}"/>
   </bookViews>
   <sheets>
     <sheet name="All Tests" sheetId="1" r:id="rId1"/>
@@ -974,12 +974,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1007,6 +1001,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1022,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1345,9 +1341,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EC47FC-93F6-45F0-B905-DC3135FC4D24}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="68" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="68" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A102" sqref="A80:I102"/>
     </sheetView>
   </sheetViews>
@@ -1364,11 +1363,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1393,31 +1392,31 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="3"/>
@@ -1467,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1485,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1497,7 +1496,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1545,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1563,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1581,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1599,7 +1598,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1617,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1629,7 +1628,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1677,7 +1676,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1695,7 +1694,7 @@
         <v>44</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1713,7 +1712,7 @@
         <v>46</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1773,7 +1772,7 @@
         <v>53</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1791,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,7 +1808,7 @@
         <v>57</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1827,7 +1826,7 @@
         <v>59</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1845,7 +1844,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1863,7 +1862,7 @@
         <v>63</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1881,7 +1880,7 @@
         <v>65</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,14 +1892,14 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="25">
         <v>6</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1941,7 +1940,7 @@
         <v>72</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1958,7 +1957,7 @@
         <v>74</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1977,7 +1976,7 @@
       <c r="A34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>7</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -2018,7 +2017,7 @@
         <v>81</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2053,7 @@
         <v>85</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2066,14 +2065,14 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <v>8</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2114,7 +2113,7 @@
         <v>92</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2132,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2150,7 +2149,7 @@
         <v>96</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="19"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2162,14 +2161,14 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="25">
         <v>9</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -2210,7 +2209,7 @@
         <v>103</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="19"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2228,7 +2227,7 @@
         <v>105</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2240,14 +2239,14 @@
       <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="25">
         <v>10</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -2288,7 +2287,7 @@
         <v>112</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="19"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2306,7 +2305,7 @@
         <v>114</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="19"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2318,14 +2317,14 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <v>11</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -2366,7 +2365,7 @@
         <v>121</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2384,7 +2383,7 @@
         <v>122</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2402,7 +2401,7 @@
         <v>124</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2420,7 +2419,7 @@
         <v>126</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="19"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2432,14 +2431,14 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <v>12</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -2480,7 +2479,7 @@
         <v>133</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="19"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2498,7 +2497,7 @@
         <v>135</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="19"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2510,14 +2509,14 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -2558,7 +2557,7 @@
         <v>142</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2570,14 +2569,14 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="25">
         <v>14</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -2618,7 +2617,7 @@
         <v>149</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2636,7 +2635,7 @@
         <v>151</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2654,7 +2653,7 @@
         <v>153</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="19"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2672,26 +2671,26 @@
         <v>155</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="25">
         <v>15</v>
       </c>
       <c r="C71" s="12" t="s">
@@ -2732,7 +2731,7 @@
         <v>174</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2750,7 +2749,7 @@
         <v>176</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="19"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2768,26 +2767,26 @@
         <v>177</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="19"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="26"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <v>16</v>
       </c>
       <c r="C76" s="12" t="s">
@@ -2828,7 +2827,7 @@
         <v>182</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="19"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2846,7 +2845,7 @@
         <v>185</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="19"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2864,26 +2863,26 @@
         <v>186</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="19"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="26"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="24"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="25">
         <v>17</v>
       </c>
       <c r="C81" s="12" t="s">
@@ -2924,7 +2923,7 @@
         <v>192</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="19"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2942,25 +2941,25 @@
         <v>193</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="19"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="26"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="25">
         <v>18</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -3000,7 +2999,7 @@
         <v>197</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="19"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
@@ -3017,7 +3016,7 @@
         <v>200</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="19"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
@@ -3034,7 +3033,7 @@
         <v>202</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="19"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
@@ -3051,24 +3050,24 @@
         <v>204</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="19"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="26"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
     </row>
     <row r="91" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="25">
         <v>19</v>
       </c>
       <c r="C91" s="12" t="s">
@@ -3108,7 +3107,7 @@
         <v>209</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="19"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
@@ -3125,24 +3124,24 @@
         <v>211</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="19"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="26"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="25">
         <v>20</v>
       </c>
       <c r="C95" s="12" t="s">
@@ -3182,7 +3181,7 @@
         <v>218</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="19"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
@@ -3199,24 +3198,24 @@
         <v>219</v>
       </c>
       <c r="H97" s="7"/>
-      <c r="I97" s="19"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="26"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="24"/>
     </row>
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="25">
         <v>21</v>
       </c>
       <c r="C99" s="12" t="s">
@@ -3256,7 +3255,7 @@
         <v>223</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="19"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -3273,18 +3272,18 @@
         <v>225</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="19"/>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="26"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="24"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
@@ -3301,15 +3300,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86054CE-8067-4A68-B442-AE26D5B1146F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="89" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3327,38 +3329,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3406,7 +3408,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -3423,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
@@ -3434,7 +3436,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -3480,7 +3482,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
@@ -3497,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
@@ -3514,7 +3516,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -3531,7 +3533,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -3548,7 +3550,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -3559,7 +3561,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -3605,7 +3607,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
@@ -3622,24 +3624,24 @@
         <v>105</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -3679,7 +3681,7 @@
         <v>174</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -3696,7 +3698,7 @@
         <v>176</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -3713,24 +3715,24 @@
         <v>177</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="25">
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -3770,7 +3772,7 @@
         <v>192</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -3787,24 +3789,24 @@
         <v>193</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="25">
         <v>18</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -3844,7 +3846,7 @@
         <v>197</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -3861,7 +3863,7 @@
         <v>200</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
@@ -3878,7 +3880,7 @@
         <v>202</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -3895,24 +3897,24 @@
         <v>204</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>19</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -3952,7 +3954,7 @@
         <v>209</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
@@ -3969,24 +3971,24 @@
         <v>211</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <v>20</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -4026,7 +4028,7 @@
         <v>218</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -4043,24 +4045,24 @@
         <v>219</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="25">
         <v>21</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -4100,7 +4102,7 @@
         <v>223</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
@@ -4117,34 +4119,35 @@
         <v>225</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="19"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="68d4fa24-27bc-4a2b-8b10-66e8c88ad728" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4355,27 +4358,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="68d4fa24-27bc-4a2b-8b10-66e8c88ad728" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B4E38F-F5AD-4E98-885A-0062393198BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C957952-7C1E-4B59-84B8-BFBB782867EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2c986a59-9623-43da-912b-e65b30ca5c76"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="68d4fa24-27bc-4a2b-8b10-66e8c88ad728"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4400,9 +4393,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C957952-7C1E-4B59-84B8-BFBB782867EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B4E38F-F5AD-4E98-885A-0062393198BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="2c986a59-9623-43da-912b-e65b30ca5c76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="68d4fa24-27bc-4a2b-8b10-66e8c88ad728"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>